--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr_HK.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\trans\BCDTRtSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_F38115EF335BB3F3DFF8AD42D1B3136DDB95550E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E70058FC-AA4A-4F8D-B0EE-4A76C642F2A8}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="11_F38115EF335BB3F3DFF8AD42D1B3136DDB95550E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C493DB9E-4B6F-4DD2-B7A5-9EDF7A32E6F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3955775-2F14-4E2D-AD91-38954BF95459}">
   <dimension ref="A1:BK107"/>
   <sheetViews>
-    <sheetView topLeftCell="R69" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5917,7 +5917,7 @@
   <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="B1:C1048576"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6926,8 +6926,8 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7936,15 +7936,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8178,6 +8169,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8188,15 +8188,31 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95CB3B09-2058-42B8-B543-9FFC128D2595}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDDF5E3D-2090-4A5C-AE1D-CEA2430518B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95CB3B09-2058-42B8-B543-9FFC128D2595}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
